--- a/hes-api.xlsx
+++ b/hes-api.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiannancao\PycharmProjects\Unittest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiannancao\Documents\GitHub\exceltest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="204">
   <si>
     <t>序号</t>
   </si>
@@ -797,6 +797,22 @@
   </si>
   <si>
     <t>PLC/RF Meter进行设置时间操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对秘钥档案错误的DCU进行读取时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对秘钥档案错误的Meter进行读取时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案秘钥异常测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12682,13 +12698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -13472,6 +13488,46 @@
       </c>
       <c r="N19" s="30" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="30">
+        <v>19</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="30">
+        <v>20</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -13655,7 +13711,7 @@
       </c>
       <c r="B4" s="8">
         <f>COUNT('HES API TestCase'!A:A)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF('HES API TestCase'!B:B,"*"&amp;"Yes"&amp;"*")</f>
@@ -13671,7 +13727,7 @@
       </c>
       <c r="F4" s="9">
         <f>B4-C4</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="10">
         <f>SUM('HES API TestCase'!Q2:Q106)</f>

--- a/hes-api.xlsx
+++ b/hes-api.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="204">
   <si>
     <t>序号</t>
   </si>
@@ -808,11 +808,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对秘钥档案错误的Meter进行读取时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>档案秘钥异常测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12698,13 +12698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -13504,30 +13504,10 @@
         <v>201</v>
       </c>
       <c r="E20" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>203</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="30">
-        <v>20</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -13711,7 +13691,7 @@
       </c>
       <c r="B4" s="8">
         <f>COUNT('HES API TestCase'!A:A)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF('HES API TestCase'!B:B,"*"&amp;"Yes"&amp;"*")</f>
@@ -13727,10 +13707,10 @@
       </c>
       <c r="F4" s="9">
         <f>B4-C4</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="10">
-        <f>SUM('HES API TestCase'!Q2:Q106)</f>
+        <f>SUM('HES API TestCase'!Q2:Q105)</f>
         <v>0</v>
       </c>
       <c r="H4" s="23"/>
